--- a/student_excel/studentchart.xlsx
+++ b/student_excel/studentchart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HangeulBae\Desktop\privateSchoolCMS\excelchart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HangeulBae\Desktop\privateSchoolCMS\student_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7313EEB9-8444-40BB-8261-918112D068CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A3A138C5-479E-4B7D-84FA-A90B5E0089C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="765" yWindow="960" windowWidth="28035" windowHeight="17040" xr2:uid="{6B1CC9DF-941B-9B4A-A1ED-BA17B01F4ECC}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,14 +203,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Gulim"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Gulim"/>
@@ -734,10 +726,145 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -748,141 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,7 +1193,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:H8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -1216,109 +1208,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:8" ht="11.1" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="52"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="47"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="9"/>
       <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="48"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1326,15 +1318,15 @@
       <c r="F10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="48"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="57"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="8" t="s">
         <v>5</v>
       </c>
@@ -1342,386 +1334,359 @@
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="48"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="35" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="36"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" customHeight="1">
-      <c r="A14" s="55">
+      <c r="A14" s="23">
         <v>1</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="50"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="51"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1">
-      <c r="A16" s="55">
+      <c r="A16" s="23">
         <v>2</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="50"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="51"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
-      <c r="A18" s="55">
+      <c r="A18" s="23">
         <v>3</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="50"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="51"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
-      <c r="A20" s="55">
+      <c r="A20" s="23">
         <v>4</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="50"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="51"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
-      <c r="A22" s="55">
+      <c r="A22" s="23">
         <v>5</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="50"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A23" s="56"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="51"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
-      <c r="A24" s="55">
+      <c r="A24" s="23">
         <v>6</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="50"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A25" s="56"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="51"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
-      <c r="A26" s="55">
+      <c r="A26" s="23">
         <v>7</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="50"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="51"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
-      <c r="A28" s="55">
+      <c r="A28" s="23">
         <v>8</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="50"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="51"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
-      <c r="A30" s="55">
+      <c r="A30" s="23">
         <v>9</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="50"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="51"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
-      <c r="A32" s="55">
+      <c r="A32" s="23">
         <v>10</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="50"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A33" s="56"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="51"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
-      <c r="A34" s="55">
+      <c r="A34" s="23">
         <v>11</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="50"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A35" s="56"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="51"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
-      <c r="A36" s="55">
+      <c r="A36" s="23">
         <v>12</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="50"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A37" s="56"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="51"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="14"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="59"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="17"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C32:F33"/>
-    <mergeCell ref="C34:F35"/>
-    <mergeCell ref="C16:F17"/>
-    <mergeCell ref="C18:F19"/>
-    <mergeCell ref="C20:F21"/>
-    <mergeCell ref="C22:F23"/>
-    <mergeCell ref="C24:F25"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C36:F37"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:H41"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="C28:F29"/>
+    <mergeCell ref="C30:F31"/>
     <mergeCell ref="A1:H3"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A12:H12"/>
@@ -1738,24 +1703,51 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A38:H41"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="C28:F29"/>
-    <mergeCell ref="C30:F31"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C36:F37"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="C32:F33"/>
+    <mergeCell ref="C34:F35"/>
+    <mergeCell ref="C16:F17"/>
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="C20:F21"/>
+    <mergeCell ref="C22:F23"/>
+    <mergeCell ref="C24:F25"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>